--- a/Time Flow Study/Time Flow Study 23-May-2017.xlsx
+++ b/Time Flow Study/Time Flow Study 23-May-2017.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="26311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arushriswarup/Documents/GitHub/Graduate-School/Time Flow Study/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16300"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="28800" windowHeight="16305"/>
   </bookViews>
   <sheets>
     <sheet name="Data Collection Form" sheetId="1" r:id="rId1"/>
@@ -655,8 +650,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,21 +897,10 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
   <c:lang val="en-CA"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
-      <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -945,13 +929,11 @@
         </a:p>
       </c:txPr>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -975,7 +957,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'Data Collection Form'!$B$5:$B$19</c:f>
@@ -1021,62 +1002,53 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>2.333333333333333</c:v>
+                  <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.516666666666667</c:v>
+                  <c:v>2.5166666666666666</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.866666666666667</c:v>
+                  <c:v>1.8666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>23.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.55</c:v>
+                  <c:v>2.5499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10.0</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.625</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.366666666666666</c:v>
+                  <c:v>4.3666666666666663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2111823168"/>
-        <c:axId val="-2112729152"/>
+        <c:axId val="100428800"/>
+        <c:axId val="100446976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2111823168"/>
+        <c:axId val="100428800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1111,19 +1083,17 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2112729152"/>
+        <c:crossAx val="100446976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2112729152"/>
+        <c:axId val="100446976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -1141,7 +1111,6 @@
         </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1170,7 +1139,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2111823168"/>
+        <c:crossAx val="100428800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1184,7 +1153,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1213,7 +1181,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1766,8 +1734,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>242454</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>86591</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>175491</xdr:rowOff>
     </xdr:from>
@@ -1775,7 +1743,7 @@
       <xdr:col>36</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>436418</xdr:rowOff>
+      <xdr:rowOff>1238250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1840,7 +1808,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1875,7 +1843,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2083,52 +2051,52 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="7" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.5" style="7" customWidth="1"/>
-    <col min="4" max="4" width="6.6640625" style="17" customWidth="1"/>
-    <col min="5" max="5" width="34.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="7.6640625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="43" style="7" customWidth="1"/>
-    <col min="8" max="8" width="8.5" style="7" customWidth="1"/>
-    <col min="9" max="9" width="39.83203125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="7.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="42.5" style="7" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="42.5" style="7" customWidth="1"/>
-    <col min="14" max="14" width="9.1640625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="42.5" style="7" customWidth="1"/>
-    <col min="16" max="16" width="9.1640625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="42.5" style="7" customWidth="1"/>
-    <col min="18" max="18" width="9.1640625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="42.5" style="7" customWidth="1"/>
-    <col min="20" max="20" width="9.1640625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="42.5" style="7" customWidth="1"/>
-    <col min="22" max="22" width="9.1640625" style="17" customWidth="1"/>
-    <col min="23" max="24" width="8.83203125" style="7" customWidth="1"/>
-    <col min="25" max="16384" width="8.83203125" style="7"/>
+    <col min="1" max="1" width="16.28515625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="6.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="34.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="43" style="7" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="7" customWidth="1"/>
+    <col min="9" max="9" width="39.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="7" customWidth="1"/>
+    <col min="11" max="11" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="7" customWidth="1"/>
+    <col min="17" max="17" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="7" customWidth="1"/>
+    <col min="21" max="21" width="42.42578125" style="7" customWidth="1"/>
+    <col min="22" max="22" width="9.140625" style="17" customWidth="1"/>
+    <col min="23" max="24" width="8.85546875" style="7" customWidth="1"/>
+    <col min="25" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="38" customFormat="1" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:27" s="38" customFormat="1">
       <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2176,7 +2144,7 @@
       </c>
       <c r="V3" s="40"/>
     </row>
-    <row r="4" spans="1:27" ht="25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="24.75">
       <c r="A4" s="41" t="s">
         <v>7</v>
       </c>
@@ -2253,7 +2221,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="73" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="72.75">
       <c r="A5" s="41"/>
       <c r="B5" s="8" t="s">
         <v>10</v>
@@ -2328,7 +2296,7 @@
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="24.75">
       <c r="A6" s="41"/>
       <c r="B6" s="8" t="s">
         <v>11</v>
@@ -2398,7 +2366,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="49" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="48.75">
       <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>12</v>
@@ -2472,7 +2440,7 @@
         <v>2.5166666666666666</v>
       </c>
     </row>
-    <row r="8" spans="1:27" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="72.75" customHeight="1">
       <c r="A8" s="41"/>
       <c r="B8" s="8" t="s">
         <v>13</v>
@@ -2546,7 +2514,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="16" customFormat="1" ht="37" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" s="16" customFormat="1" ht="36.75">
       <c r="A9" s="41"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2587,7 +2555,7 @@
       <c r="U9" s="13"/>
       <c r="V9" s="14"/>
     </row>
-    <row r="10" spans="1:27" ht="37" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" ht="36.75">
       <c r="A10" s="41"/>
       <c r="B10" s="8" t="s">
         <v>14</v>
@@ -2659,7 +2627,7 @@
         <v>1.8666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="109" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="120.75">
       <c r="A11" s="41"/>
       <c r="B11" s="8" t="s">
         <v>15</v>
@@ -2731,7 +2699,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="37" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="48.75">
       <c r="A12" s="41"/>
       <c r="B12" s="8" t="s">
         <v>16</v>
@@ -2797,7 +2765,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="49" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="48.75">
       <c r="A13" s="41"/>
       <c r="B13" s="8" t="s">
         <v>17</v>
@@ -2873,7 +2841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" s="16" customFormat="1">
       <c r="A14" s="41"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2899,7 +2867,7 @@
       <c r="U14" s="13"/>
       <c r="V14" s="14"/>
     </row>
-    <row r="15" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" s="16" customFormat="1">
       <c r="A15" s="41"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2925,7 +2893,7 @@
       <c r="U15" s="13"/>
       <c r="V15" s="14"/>
     </row>
-    <row r="16" spans="1:27" ht="73" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="84.75">
       <c r="A16" s="41"/>
       <c r="B16" s="8" t="s">
         <v>18</v>
@@ -2994,7 +2962,7 @@
         <v>2.625</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" s="16" customFormat="1">
       <c r="A17" s="41"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3020,7 +2988,7 @@
       <c r="U17" s="13"/>
       <c r="V17" s="14"/>
     </row>
-    <row r="18" spans="1:27" s="16" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" s="16" customFormat="1">
       <c r="A18" s="41"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3046,7 +3014,7 @@
       <c r="U18" s="13"/>
       <c r="V18" s="14"/>
     </row>
-    <row r="19" spans="1:27" ht="25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="24.75">
       <c r="A19" s="41"/>
       <c r="B19" s="8" t="s">
         <v>19</v>
@@ -3109,7 +3077,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" s="35" customFormat="1">
       <c r="A20" s="34" t="s">
         <v>3</v>
       </c>
@@ -3126,7 +3094,7 @@
       <c r="F20" s="42"/>
       <c r="V20" s="28"/>
     </row>
-    <row r="21" spans="1:27" ht="25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="24.75">
       <c r="A21" s="37" t="s">
         <v>20</v>
       </c>
@@ -3146,7 +3114,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="37" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="36.75">
       <c r="A22" s="37"/>
       <c r="B22" s="9" t="s">
         <v>10</v>
@@ -3160,7 +3128,7 @@
       <c r="E22" s="9"/>
       <c r="F22" s="9"/>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="24.75">
       <c r="A23" s="37"/>
       <c r="B23" s="9" t="s">
         <v>11</v>
@@ -3172,7 +3140,7 @@
       <c r="E23" s="9"/>
       <c r="F23" s="9"/>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27">
       <c r="A24" s="37"/>
       <c r="B24" s="9" t="s">
         <v>12</v>
@@ -3186,7 +3154,7 @@
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="37" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="36.75">
       <c r="A25" s="37"/>
       <c r="B25" s="9" t="s">
         <v>13</v>
@@ -3200,7 +3168,7 @@
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="24.75">
       <c r="A26" s="37"/>
       <c r="B26" s="9" t="s">
         <v>14</v>
@@ -3214,7 +3182,7 @@
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="37" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="36.75">
       <c r="A27" s="37"/>
       <c r="B27" s="9" t="s">
         <v>15</v>
@@ -3228,7 +3196,7 @@
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27">
       <c r="A28" s="37"/>
       <c r="B28" s="9" t="s">
         <v>16</v>
@@ -3238,7 +3206,7 @@
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27">
       <c r="A29" s="37"/>
       <c r="B29" s="9" t="s">
         <v>17</v>
@@ -3251,7 +3219,7 @@
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27">
       <c r="A30" s="37"/>
       <c r="B30" s="9" t="s">
         <v>18</v>
@@ -3265,7 +3233,7 @@
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27">
       <c r="A31" s="37"/>
       <c r="B31" s="9" t="s">
         <v>19</v>
@@ -3277,7 +3245,7 @@
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="30" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="45">
       <c r="B32" s="33" t="s">
         <v>129</v>
       </c>
@@ -3288,7 +3256,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
         <v>40</v>
       </c>
@@ -3299,7 +3267,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="B38" s="7">
         <v>4</v>
       </c>
@@ -3330,25 +3298,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="14.1640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" s="3" customFormat="1" ht="30">
       <c r="B2" s="2" t="s">
         <v>22</v>
       </c>
@@ -3356,7 +3324,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3367,7 +3335,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3378,7 +3346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="30">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3386,7 +3354,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" ht="30">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3401,21 +3369,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q44"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="7" width="8.83203125" style="22"/>
-    <col min="8" max="8" width="18.1640625" style="22" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="22"/>
+    <col min="1" max="7" width="8.85546875" style="22"/>
+    <col min="8" max="8" width="18.140625" style="22" customWidth="1"/>
+    <col min="9" max="16384" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -3454,7 +3422,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="19" t="s">
         <v>10</v>
       </c>
@@ -3491,7 +3459,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17">
       <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
@@ -3528,7 +3496,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
@@ -3565,7 +3533,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="19" t="s">
         <v>13</v>
       </c>
@@ -3610,7 +3578,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="23"/>
       <c r="B6" s="24"/>
       <c r="C6" s="24">
@@ -3629,7 +3597,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="19" t="s">
         <v>14</v>
       </c>
@@ -3656,7 +3624,7 @@
         <v>1.75</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
@@ -3683,7 +3651,7 @@
         <v>2.5833333333333335</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="19" t="s">
         <v>16</v>
       </c>
@@ -3710,7 +3678,7 @@
         <v>1.3333333333333333</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="19" t="s">
         <v>17</v>
       </c>
@@ -3737,7 +3705,7 @@
         <v>5.833333333333333</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="23"/>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
@@ -3756,7 +3724,7 @@
         <v>2.5166666666666666</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="23"/>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
@@ -3775,7 +3743,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="19" t="s">
         <v>18</v>
       </c>
@@ -3802,7 +3770,7 @@
         <v>4.2833333333333332</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="23"/>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
@@ -3821,7 +3789,7 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="23"/>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
@@ -3840,7 +3808,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="19" t="s">
         <v>19</v>
       </c>
@@ -3867,7 +3835,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="8:10">
       <c r="H17" s="29" t="s">
         <v>77</v>
       </c>
@@ -3879,7 +3847,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="8:10">
       <c r="H18" s="29" t="s">
         <v>78</v>
       </c>
@@ -3891,7 +3859,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="8:10">
       <c r="H19" s="29" t="s">
         <v>78</v>
       </c>
@@ -3903,7 +3871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="8:10">
       <c r="H20" s="29" t="s">
         <v>78</v>
       </c>
@@ -3915,7 +3883,7 @@
         <v>2.0666666666666669</v>
       </c>
     </row>
-    <row r="21" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="8:10">
       <c r="H21" s="29" t="s">
         <v>78</v>
       </c>
@@ -3927,7 +3895,7 @@
         <v>3.6666666666666665</v>
       </c>
     </row>
-    <row r="22" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="8:10">
       <c r="H22" s="29" t="s">
         <v>79</v>
       </c>
@@ -3939,7 +3907,7 @@
         <v>17.466666666666665</v>
       </c>
     </row>
-    <row r="23" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="8:10">
       <c r="H23" s="29" t="s">
         <v>79</v>
       </c>
@@ -3951,7 +3919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="8:10">
       <c r="H24" s="29" t="s">
         <v>79</v>
       </c>
@@ -3963,7 +3931,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="8:10">
       <c r="H25" s="29" t="s">
         <v>79</v>
       </c>
@@ -3975,7 +3943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="8:10">
       <c r="H26" s="29" t="s">
         <v>80</v>
       </c>
@@ -3987,7 +3955,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="8:10">
       <c r="H27" s="29" t="s">
         <v>80</v>
       </c>
@@ -3999,7 +3967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="8:10">
       <c r="H28" s="29" t="s">
         <v>80</v>
       </c>
@@ -4011,7 +3979,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="29" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="8:10">
       <c r="H29" s="29" t="s">
         <v>80</v>
       </c>
@@ -4023,7 +3991,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="30" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="8:10">
       <c r="H30" s="29" t="s">
         <v>81</v>
       </c>
@@ -4035,7 +4003,7 @@
         <v>13.25</v>
       </c>
     </row>
-    <row r="31" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="8:10">
       <c r="H31" s="29" t="s">
         <v>81</v>
       </c>
@@ -4047,7 +4015,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="8:10">
       <c r="H32" s="29" t="s">
         <v>81</v>
       </c>
@@ -4059,7 +4027,7 @@
         <v>3.75</v>
       </c>
     </row>
-    <row r="33" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="8:10">
       <c r="H33" s="29" t="s">
         <v>81</v>
       </c>
@@ -4071,7 +4039,7 @@
         <v>25.166666666666668</v>
       </c>
     </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="8:10">
       <c r="H34" s="29" t="s">
         <v>81</v>
       </c>
@@ -4083,7 +4051,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="8:10">
       <c r="H35" s="29" t="s">
         <v>81</v>
       </c>
@@ -4095,7 +4063,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="8:10">
       <c r="H36" s="29" t="s">
         <v>82</v>
       </c>
@@ -4107,7 +4075,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="37" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="8:10">
       <c r="H37" s="29" t="s">
         <v>82</v>
       </c>
@@ -4119,7 +4087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="8:10">
       <c r="H38" s="29" t="s">
         <v>82</v>
       </c>
@@ -4131,7 +4099,7 @@
         <v>2.75</v>
       </c>
     </row>
-    <row r="39" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="8:10">
       <c r="H39" s="29" t="s">
         <v>82</v>
       </c>
@@ -4143,7 +4111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="8:10">
       <c r="H40" s="29" t="s">
         <v>82</v>
       </c>
@@ -4155,7 +4123,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="8:10">
       <c r="H41" s="29" t="s">
         <v>82</v>
       </c>
@@ -4167,7 +4135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="8:10">
       <c r="H42" s="29" t="s">
         <v>83</v>
       </c>
@@ -4179,7 +4147,7 @@
         <v>4.3666666666666663</v>
       </c>
     </row>
-    <row r="43" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="8:10">
       <c r="H43" s="29" t="s">
         <v>83</v>
       </c>
@@ -4191,7 +4159,7 @@
         <v>5.916666666666667</v>
       </c>
     </row>
-    <row r="44" spans="8:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="8:10">
       <c r="H44" s="29" t="s">
         <v>83</v>
       </c>

--- a/Time Flow Study/Time Flow Study 23-May-2017.xlsx
+++ b/Time Flow Study/Time Flow Study 23-May-2017.xlsx
@@ -1035,14 +1035,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="100428800"/>
-        <c:axId val="100446976"/>
+        <c:axId val="71308800"/>
+        <c:axId val="71310336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100428800"/>
+        <c:axId val="71308800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1083,14 +1082,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100446976"/>
+        <c:crossAx val="71310336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100446976"/>
+        <c:axId val="71310336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1139,7 +1138,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100428800"/>
+        <c:crossAx val="71308800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1181,7 +1180,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2054,8 +2053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P4" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AD13" sqref="AD13"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>

--- a/Time Flow Study/Time Flow Study 23-May-2017.xlsx
+++ b/Time Flow Study/Time Flow Study 23-May-2017.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Surgeon Consent" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="152">
   <si>
     <t>Step</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Study Number: XXXXX</t>
-  </si>
-  <si>
-    <t>Study Number: XXXXX</t>
   </si>
   <si>
     <t>Tympanoplasty</t>
@@ -160,9 +154,6 @@
   </si>
   <si>
     <t>Study Number: 11773</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Study Number: </t>
   </si>
   <si>
     <t>*trainee</t>
@@ -645,6 +636,87 @@
   </si>
   <si>
     <t xml:space="preserve">using forceps, PL, PR to remove white cholesteatoma: 0-10:30, 0-6:13, </t>
+  </si>
+  <si>
+    <t>Study Number: 55366</t>
+  </si>
+  <si>
+    <t>Study Number:  69867</t>
+  </si>
+  <si>
+    <t>Study Number: 47051</t>
+  </si>
+  <si>
+    <t>Study Number: 59025</t>
+  </si>
+  <si>
+    <t>Study Number: 63717</t>
+  </si>
+  <si>
+    <t>Study Number: 86787</t>
+  </si>
+  <si>
+    <t>Tympanoplasty 23-May-2017 4:00 pm,
+Dr. James
+underlay 
+CONSENT: yes in patient chart</t>
+  </si>
+  <si>
+    <t>since udnerlay therefore faster raising flap
+PL, PR, forceps, PR, PL, adren ball</t>
+  </si>
+  <si>
+    <t>*trainee Rosen
+Dr. James - repositioned graft - derlacki, Thomassin, Rosen, gel foam to help position
+this is the total time (with the restarts)</t>
+  </si>
+  <si>
+    <t>had to restart because repositioned the graft (this is the total time with the restarts)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Study Number: 19981</t>
+  </si>
+  <si>
+    <t>Study Number: 95576</t>
+  </si>
+  <si>
+    <t>cholesteatoma second look 11-Jul-2017 8:00 am, 
+Dr. James biodesign
+CONSENT: yes in patient chart
+sucker, pretty waxy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*trainee 
+</t>
+  </si>
+  <si>
+    <t>*trainee
+scissors, middle ear scissors + Dr. Cushing</t>
+  </si>
+  <si>
+    <t>Rosen, forceps, put a ball in by the perf., aligator, sucker</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>*trainee - PRK, forceps, ball, PRK, PR, 
+Cushing - PR, PRK, bloody so adrenaline wash out 2 times, Rosen, ball, sucker, Rosen, PL, knife, Rosen, forceps, straight sucker</t>
+  </si>
+  <si>
+    <t>block + knife</t>
+  </si>
+  <si>
+    <t>had to resize, aligator to introduce, rosen, Derlacki, Rosen, round knife, rosen</t>
+  </si>
+  <si>
+    <t>aligator, rosen</t>
+  </si>
+  <si>
+    <t>second look for cholesteatoma - removed a little bit but didn't think there was any</t>
+  </si>
+  <si>
+    <t>plastic looking graft like material to go over the perforation + gel foam to pack</t>
   </si>
 </sst>
 </file>
@@ -1037,11 +1109,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="71308800"/>
-        <c:axId val="71310336"/>
+        <c:axId val="100160256"/>
+        <c:axId val="100161792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="71308800"/>
+        <c:axId val="100160256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,14 +1154,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71310336"/>
+        <c:crossAx val="100161792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71310336"/>
+        <c:axId val="100161792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1138,7 +1210,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="71308800"/>
+        <c:crossAx val="100160256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1180,7 +1252,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2053,31 +2125,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="7" customWidth="1"/>
-    <col min="7" max="7" width="43" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="8.42578125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="39.85546875" style="7" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10" style="7" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="7" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="23" style="7" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" style="7" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" style="7" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="36" style="7" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" style="7" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="7" customWidth="1"/>
     <col min="21" max="21" width="42.42578125" style="7" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="17" customWidth="1"/>
@@ -2103,184 +2175,186 @@
         <v>4</v>
       </c>
       <c r="C3" s="40" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="40" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40" t="s">
-        <v>45</v>
+        <v>129</v>
       </c>
       <c r="L3" s="40"/>
       <c r="M3" s="40" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="40" t="s">
-        <v>45</v>
+        <v>131</v>
       </c>
       <c r="P3" s="40"/>
       <c r="Q3" s="40" t="s">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="R3" s="40"/>
       <c r="S3" s="40" t="s">
-        <v>45</v>
+        <v>133</v>
       </c>
       <c r="T3" s="40"/>
       <c r="U3" s="40" t="s">
-        <v>45</v>
+        <v>134</v>
       </c>
       <c r="V3" s="40"/>
     </row>
     <row r="4" spans="1:27" ht="24.75">
       <c r="A4" s="41" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Q4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="S4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="U4" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="72.75">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="120.75">
       <c r="A5" s="41"/>
       <c r="B5" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F5" s="10">
         <v>183</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H5" s="10">
         <v>20</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J5" s="10">
         <v>210</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="L5" s="9">
         <v>374</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="N5" s="9">
         <v>160</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P5" s="9">
         <v>120</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="R5" s="9">
         <v>50</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="T5" s="9">
         <f>60+15</f>
         <v>75</v>
       </c>
-      <c r="U5" s="31"/>
+      <c r="U5" s="31" t="s">
+        <v>135</v>
+      </c>
       <c r="V5" s="10"/>
       <c r="Y5" s="7">
         <f>AVERAGE(F5:T5)</f>
@@ -2298,14 +2372,14 @@
     <row r="6" spans="1:27" ht="24.75">
       <c r="A6" s="41"/>
       <c r="B6" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="10">
         <v>140</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F6" s="10">
         <v>240</v>
@@ -2315,13 +2389,13 @@
         <v>105</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J6" s="10">
         <v>155</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L6" s="9">
         <v>187</v>
@@ -2331,21 +2405,21 @@
         <v>120</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P6" s="9">
         <f>6*60+14</f>
         <v>374</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="R6" s="9">
         <f>2*60+54</f>
         <v>174</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T6" s="9">
         <f>4*60+30</f>
@@ -2368,59 +2442,59 @@
     <row r="7" spans="1:27" ht="48.75">
       <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="10">
         <v>80</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="F7" s="10">
         <v>350</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H7" s="10">
         <v>151</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="J7" s="10">
         <v>210</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="L7" s="9">
         <v>615</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="N7" s="9">
         <v>110</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="P7" s="9">
         <v>57</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="R7" s="9">
         <f>2*60+30</f>
         <v>150</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="T7" s="9">
         <f>5*60</f>
@@ -2442,59 +2516,59 @@
     <row r="8" spans="1:27" ht="72.75" customHeight="1">
       <c r="A8" s="41"/>
       <c r="B8" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="10">
         <v>257</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F8" s="10">
         <v>162</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H8" s="10">
         <v>210</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="J8" s="10">
         <v>450</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="L8" s="9">
         <v>190</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="N8" s="9">
         <v>205</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="P8" s="9">
         <v>120</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R8" s="9">
         <f>3*60+30</f>
         <v>210</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="T8" s="9">
         <f>3*60+40</f>
@@ -2519,7 +2593,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F9" s="14">
         <v>870</v>
@@ -2532,20 +2606,20 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="P9" s="13">
         <v>60</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="R9" s="13">
         <f>3*60+36</f>
         <v>216</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="T9" s="13">
         <f>15*60+30</f>
@@ -2557,57 +2631,57 @@
     <row r="10" spans="1:27" ht="36.75">
       <c r="A10" s="41"/>
       <c r="B10" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D10" s="10">
         <v>78</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F10" s="10">
         <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="H10" s="10">
         <v>124</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="J10" s="10">
         <v>220</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="L10" s="9">
         <v>220</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="N10" s="9">
         <v>46</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="R10" s="9">
         <f>2*60+35</f>
         <v>155</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="T10" s="9">
         <f>60+40</f>
@@ -2626,65 +2700,72 @@
         <v>1.8666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="120.75">
+    <row r="11" spans="1:27" ht="204.75">
       <c r="A11" s="41"/>
       <c r="B11" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D11" s="10">
         <v>1048</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F11" s="10">
         <v>1140</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H11" s="5">
         <v>2190</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="J11" s="10">
         <v>3600</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="L11" s="9">
         <v>2880</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N11" s="9">
         <v>1256</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="R11" s="9">
         <f>23*60</f>
         <v>1380</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T11" s="9">
         <f>24*60</f>
         <v>1440</v>
       </c>
+      <c r="U11" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="V11" s="17">
+        <f>6*60+21</f>
+        <v>381</v>
+      </c>
       <c r="Y11" s="7">
         <f>AVERAGE(D11:T11)</f>
         <v>1866.75</v>
@@ -2698,43 +2779,43 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="48.75">
+    <row r="12" spans="1:27" ht="36.75">
       <c r="A12" s="41"/>
       <c r="B12" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D12" s="10">
         <v>240</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F12" s="10">
         <v>180</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H12" s="10">
         <v>20</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="J12" s="10">
         <v>126</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L12" s="9">
         <v>120</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N12" s="9">
         <v>175</v>
@@ -2744,13 +2825,15 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="T12" s="9">
         <v>60</v>
       </c>
       <c r="U12" s="9"/>
-      <c r="V12" s="10"/>
+      <c r="V12" s="10">
+        <v>90</v>
+      </c>
       <c r="Y12" s="7">
         <f t="shared" ref="Y12" si="0">AVERAGE(D12:T12)</f>
         <v>131.57142857142858</v>
@@ -2764,69 +2847,75 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="48.75">
+    <row r="13" spans="1:27" ht="84.75">
       <c r="A13" s="41"/>
       <c r="B13" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D13" s="10">
         <v>795</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F13" s="10">
         <v>1260</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H13" s="10">
         <v>225</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="J13" s="5">
         <v>1510</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L13" s="9">
         <v>1035</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="N13" s="9">
         <v>225</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P13" s="9">
         <f>9*60+10</f>
         <v>550</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="R13" s="9">
         <f>22*60</f>
         <v>1320</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="T13" s="9">
         <f>4*60+15</f>
         <v>255</v>
       </c>
-      <c r="U13" s="9"/>
+      <c r="U13" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="V13" s="17">
+        <f>9*60+31+8*60+16+3*60</f>
+        <v>1247</v>
+      </c>
       <c r="Y13" s="7">
         <f>AVERAGE(D13:T13,J14:J15)</f>
         <v>734.09090909090912</v>
@@ -2895,10 +2984,10 @@
     <row r="16" spans="1:27" ht="84.75">
       <c r="A16" s="41"/>
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="10">
         <v>150</v>
@@ -2908,31 +2997,31 @@
         <v>120</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H16" s="10">
         <v>165</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="J16" s="17">
         <v>660</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="L16" s="9">
         <v>360</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="N16" s="9">
         <v>150</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P16" s="9">
         <f>7*60+50</f>
@@ -2940,13 +3029,20 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="32" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="T16" s="9">
         <v>60</v>
+      </c>
+      <c r="U16" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="V16" s="17">
+        <f>2*60+60+44+50</f>
+        <v>274</v>
       </c>
       <c r="Y16" s="7">
         <f>AVERAGE(D16:P16,T16,J17:J18)</f>
@@ -3016,22 +3112,22 @@
     <row r="19" spans="1:27" ht="24.75">
       <c r="A19" s="41"/>
       <c r="B19" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F19" s="10">
         <v>262</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H19" s="10">
         <v>355</v>
@@ -3057,7 +3153,7 @@
         <v>120</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T19" s="9">
         <f>4*60</f>
@@ -3084,186 +3180,242 @@
         <v>4</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>5</v>
+        <v>139</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>6</v>
+        <v>140</v>
       </c>
       <c r="F20" s="42"/>
       <c r="V20" s="28"/>
     </row>
     <row r="21" spans="1:27" ht="24.75">
       <c r="A21" s="37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" ht="36.75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="60.75">
       <c r="A22" s="37"/>
       <c r="B22" s="9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D22" s="10">
         <v>48</v>
       </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F22" s="9">
+        <f>3*60+26+60*2</f>
+        <v>326</v>
+      </c>
     </row>
     <row r="23" spans="1:27" ht="24.75">
       <c r="A23" s="37"/>
       <c r="B23" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C23" s="9"/>
       <c r="D23" s="9">
         <v>49</v>
       </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:27">
+      <c r="E23" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="F23" s="9">
+        <f>4*60+44</f>
+        <v>284</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="36.75">
       <c r="A24" s="37"/>
       <c r="B24" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" s="10">
         <v>104</v>
       </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="F24" s="9">
+        <f>3*60+40+40+60+40</f>
+        <v>360</v>
+      </c>
     </row>
     <row r="25" spans="1:27" ht="36.75">
       <c r="A25" s="37"/>
       <c r="B25" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D25" s="10">
         <v>210</v>
       </c>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" s="9">
+        <f>2*60+40</f>
+        <v>160</v>
+      </c>
     </row>
     <row r="26" spans="1:27" ht="24.75">
       <c r="A26" s="37"/>
       <c r="B26" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D26" s="10">
         <v>35</v>
       </c>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-    </row>
-    <row r="27" spans="1:27" ht="36.75">
+      <c r="E26" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="F26" s="9">
+        <f>60+17</f>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="60.75">
       <c r="A27" s="37"/>
       <c r="B27" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D27" s="10">
         <v>525</v>
       </c>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F27" s="9">
+        <f>60*60+5</f>
+        <v>3605</v>
+      </c>
     </row>
     <row r="28" spans="1:27">
       <c r="A28" s="37"/>
       <c r="B28" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-    </row>
-    <row r="29" spans="1:27">
+      <c r="E28" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="F28" s="9">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="24.75">
       <c r="A29" s="37"/>
       <c r="B29" s="9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C29" s="9"/>
       <c r="D29" s="10">
         <f>27*60+25</f>
         <v>1645</v>
       </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F29" s="9">
+        <f>60*10</f>
+        <v>600</v>
+      </c>
     </row>
     <row r="30" spans="1:27">
       <c r="A30" s="37"/>
       <c r="B30" s="9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D30" s="10">
         <v>239</v>
       </c>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-    </row>
-    <row r="31" spans="1:27">
+      <c r="E30" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="9">
+        <f>2*60</f>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="24.75">
       <c r="A31" s="37"/>
       <c r="B31" s="9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="17">
         <v>186</v>
       </c>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="9">
+        <f>4*60+20</f>
+        <v>260</v>
+      </c>
     </row>
     <row r="32" spans="1:27" ht="45">
       <c r="B32" s="33" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D32" s="17">
         <v>1003</v>
       </c>
+      <c r="E32" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F32" s="7">
+        <f>5*60</f>
+        <v>300</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3312,15 +3464,15 @@
   <sheetData>
     <row r="1" spans="1:3" s="4" customFormat="1" ht="18.75">
       <c r="A1" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="3" customFormat="1" ht="30">
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30">
@@ -3328,10 +3480,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30">
@@ -3339,10 +3491,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30">
@@ -3350,7 +3502,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30">
@@ -3358,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3387,46 +3539,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="J1" s="19" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K1" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L1" s="23"/>
       <c r="M1" s="23"/>
       <c r="N1" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="O1" s="23"/>
       <c r="P1" s="23"/>
       <c r="Q1" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="20">
         <v>183</v>
@@ -3438,7 +3590,7 @@
         <v>210</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I2" s="20">
         <v>183</v>
@@ -3455,12 +3607,12 @@
       <c r="O2" s="24"/>
       <c r="P2" s="24"/>
       <c r="Q2" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B3" s="20">
         <v>140</v>
@@ -3475,7 +3627,7 @@
         <v>155</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I3" s="20">
         <v>20</v>
@@ -3497,7 +3649,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="20">
         <v>80</v>
@@ -3512,7 +3664,7 @@
         <v>210</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I4" s="20">
         <v>210</v>
@@ -3534,7 +3686,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="19" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" s="20">
         <v>257</v>
@@ -3549,7 +3701,7 @@
         <v>450</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I5" s="20">
         <v>140</v>
@@ -3586,7 +3738,7 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="H6" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I6" s="20">
         <v>240</v>
@@ -3598,7 +3750,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="19" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="20">
         <v>78</v>
@@ -3613,7 +3765,7 @@
         <v>220</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I7" s="20">
         <v>105</v>
@@ -3625,7 +3777,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="20">
         <v>1048</v>
@@ -3640,7 +3792,7 @@
         <v>3600</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I8" s="20">
         <v>155</v>
@@ -3652,7 +3804,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="20">
         <v>240</v>
@@ -3667,7 +3819,7 @@
         <v>126</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I9" s="20">
         <v>80</v>
@@ -3679,7 +3831,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="20">
         <v>795</v>
@@ -3694,7 +3846,7 @@
         <v>1510</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I10" s="20">
         <v>350</v>
@@ -3713,7 +3865,7 @@
         <v>600</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I11" s="20">
         <v>151</v>
@@ -3732,7 +3884,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="I12" s="20">
         <v>210</v>
@@ -3744,7 +3896,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B13" s="20">
         <v>150</v>
@@ -3759,7 +3911,7 @@
         <v>660</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I13" s="20">
         <v>257</v>
@@ -3778,7 +3930,7 @@
         <v>600</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I14" s="20">
         <v>162</v>
@@ -3797,7 +3949,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I15" s="20">
         <v>210</v>
@@ -3809,10 +3961,10 @@
     </row>
     <row r="16" spans="1:17">
       <c r="A16" s="19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="20">
         <v>262</v>
@@ -3824,7 +3976,7 @@
         <v>180</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I16" s="20">
         <v>450</v>
@@ -3836,7 +3988,7 @@
     </row>
     <row r="17" spans="8:10">
       <c r="H17" s="29" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I17" s="24">
         <v>870</v>
@@ -3848,7 +4000,7 @@
     </row>
     <row r="18" spans="8:10">
       <c r="H18" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I18" s="20">
         <v>78</v>
@@ -3860,7 +4012,7 @@
     </row>
     <row r="19" spans="8:10">
       <c r="H19" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I19" s="20">
         <v>60</v>
@@ -3872,7 +4024,7 @@
     </row>
     <row r="20" spans="8:10">
       <c r="H20" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I20" s="20">
         <v>124</v>
@@ -3884,7 +4036,7 @@
     </row>
     <row r="21" spans="8:10">
       <c r="H21" s="29" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I21" s="20">
         <v>220</v>
@@ -3896,7 +4048,7 @@
     </row>
     <row r="22" spans="8:10">
       <c r="H22" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I22" s="20">
         <v>1048</v>
@@ -3908,7 +4060,7 @@
     </row>
     <row r="23" spans="8:10">
       <c r="H23" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I23" s="20">
         <v>1140</v>
@@ -3920,7 +4072,7 @@
     </row>
     <row r="24" spans="8:10">
       <c r="H24" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I24" s="26">
         <v>2190</v>
@@ -3932,7 +4084,7 @@
     </row>
     <row r="25" spans="8:10">
       <c r="H25" s="29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="I25" s="20">
         <v>3600</v>
@@ -3944,7 +4096,7 @@
     </row>
     <row r="26" spans="8:10">
       <c r="H26" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I26" s="20">
         <v>240</v>
@@ -3956,7 +4108,7 @@
     </row>
     <row r="27" spans="8:10">
       <c r="H27" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I27" s="20">
         <v>180</v>
@@ -3968,7 +4120,7 @@
     </row>
     <row r="28" spans="8:10">
       <c r="H28" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I28" s="20">
         <v>20</v>
@@ -3980,7 +4132,7 @@
     </row>
     <row r="29" spans="8:10">
       <c r="H29" s="29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="I29" s="20">
         <v>126</v>
@@ -3992,7 +4144,7 @@
     </row>
     <row r="30" spans="8:10">
       <c r="H30" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I30" s="20">
         <v>795</v>
@@ -4004,7 +4156,7 @@
     </row>
     <row r="31" spans="8:10">
       <c r="H31" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I31" s="20">
         <v>1260</v>
@@ -4016,7 +4168,7 @@
     </row>
     <row r="32" spans="8:10">
       <c r="H32" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I32" s="20">
         <v>225</v>
@@ -4028,7 +4180,7 @@
     </row>
     <row r="33" spans="8:10">
       <c r="H33" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I33" s="26">
         <v>1510</v>
@@ -4040,7 +4192,7 @@
     </row>
     <row r="34" spans="8:10">
       <c r="H34" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I34" s="30">
         <v>600</v>
@@ -4052,7 +4204,7 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I35" s="30">
         <v>300</v>
@@ -4064,7 +4216,7 @@
     </row>
     <row r="36" spans="8:10">
       <c r="H36" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I36" s="20">
         <v>150</v>
@@ -4076,7 +4228,7 @@
     </row>
     <row r="37" spans="8:10">
       <c r="H37" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I37" s="20">
         <v>120</v>
@@ -4088,7 +4240,7 @@
     </row>
     <row r="38" spans="8:10">
       <c r="H38" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I38" s="20">
         <v>165</v>
@@ -4100,7 +4252,7 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I39" s="28">
         <v>660</v>
@@ -4112,7 +4264,7 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I40" s="30">
         <v>600</v>
@@ -4124,7 +4276,7 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I41" s="30">
         <v>60</v>
@@ -4136,7 +4288,7 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I42" s="20">
         <v>262</v>
@@ -4148,7 +4300,7 @@
     </row>
     <row r="43" spans="8:10">
       <c r="H43" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I43" s="20">
         <v>355</v>
@@ -4160,7 +4312,7 @@
     </row>
     <row r="44" spans="8:10">
       <c r="H44" s="29" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I44" s="20">
         <v>180</v>

--- a/Time Flow Study/Time Flow Study 23-May-2017.xlsx
+++ b/Time Flow Study/Time Flow Study 23-May-2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="152">
   <si>
     <t>Step</t>
   </si>
@@ -120,9 +120,6 @@
     <t>knife, Rosen needle, forceps, scissors, 19Ga sucker, scissors (switched between scissors and sucker 3-4 times)</t>
   </si>
   <si>
-    <t>Panetti round knife, adrenaline ball, left/right Panetti sucker (primarily used. There was more bleeding in this case), forceps,thomassin</t>
-  </si>
-  <si>
     <t>Panetti round knife</t>
   </si>
   <si>
@@ -131,9 +128,6 @@
   </si>
   <si>
     <t>thomassin</t>
-  </si>
-  <si>
-    <t>forceps, Rosen, panetti left, Rosen, thomassin, panetti left, Rosen to unfold and place the graft</t>
   </si>
   <si>
     <t>Study Number: 30918</t>
@@ -331,29 +325,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve">
-P. Round knife, P. Left, adrenaline ball, P. Left, P. Right
-Dr. James took over at 10:10 then at 27:00
-sometimes need a different angle to properly approach the flap and raise it - sometimes need a steep angle, sometimes flat therefore a bendable tip with the round knife tip might help achieving the appropriate angle for different anatomy BUT the tip needs to be stiff </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*trainee + Dr. James</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
 gel foam</t>
     </r>
   </si>
@@ -374,11 +345,6 @@
 P. Round knife</t>
   </si>
   <si>
-    <t xml:space="preserve">*trainee + Dr. James
-P. Left, scissors, P. Right, round knife, p. Right, Beales elecator, p. Left, hughes, round knife, hughes, thomassin
-v. Narrow ear canal </t>
-  </si>
-  <si>
     <t>wasn't the right size, so did it twice 
 scissors, syringe cap</t>
   </si>
@@ -392,37 +358,6 @@
   </si>
   <si>
     <t>Time (sec)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF00B050"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>*trainee</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-P. round knife, P. right to lift the flap, Dr. James took over at 3:00, adrenaline ball, P. Left , P. Right
-removed the other cholesteaoma which is not a normal part of the procedure therefore delayed timing for this step </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>(another 371sec (6:11))</t>
-    </r>
   </si>
   <si>
     <t>Average</t>
@@ -491,23 +426,11 @@
 PRK, Dr. James was teaching/showing where to cut and then trainee cut</t>
   </si>
   <si>
-    <t>*trainee + Dr. James
-PRK, P. right, P. left, adrenaline ball, P. left, forceps, P. left, P. right, ball, P. left, Thomassin, P. left (or right), Thomassin, adrenaline ball
-raised it bery slowly to ensure skin didn't rip
-at 33:15, reached ear drum then started dissecting the layer off of it
-cleaned up edges of perforation from 39:00-48:00 
-Dr. James at 24:30-26:30, 33:15-end</t>
-  </si>
-  <si>
     <t>syringe + scissors</t>
   </si>
   <si>
     <t>*trainee + Dr. James
 aligators to introduce Rosen to push in, Derlacki, took out to reposistion into era canal, aligator, Derlacki, Rosen, Derlacki, ball, sucker, P. sucker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">*trainee + Dr. James
-P. left, Derlacki, sucker </t>
   </si>
   <si>
     <t xml:space="preserve">Right tympanoplasty live surgery demo from IWGEES course in Oct, 2016, Dr. James
@@ -718,12 +641,46 @@
   <si>
     <t>plastic looking graft like material to go over the perforation + gel foam to pack</t>
   </si>
+  <si>
+    <t xml:space="preserve">*trainee + Dr. James
+PL, Derlacki, sucker </t>
+  </si>
+  <si>
+    <t>forceps, Rosen, PL, Rosen, thomassin, PL, Rosen to unfold and place the graft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*trainee + Dr. James
+PL, scissors, PR, round knife, PR, Beales elevator, PL, hughes, round knife, hughes, thomassin
+v. Narrow ear canal </t>
+  </si>
+  <si>
+    <t>*trainee + Dr. James
+PRK, PR, PL, adrenaline ball, PL, forceps, PL, PR, ball, PL, Thomassin, PL or PR, Thomassin, adrenaline ball
+raised it bery slowly to ensure skin didn't rip
+at 33:15, reached ear drum then started dissecting the layer off of it
+cleaned up edges of perforation from 39:00-48:00 
+Dr. James at 24:30-26:30, 33:15-end</t>
+  </si>
+  <si>
+    <t>PRK, adrenaline ball,PL or PR sucker (primarily used. There was more bleeding in this case), forceps,thomassin</t>
+  </si>
+  <si>
+    <t>*trainee
+PRK, PR to lift the flap, Dr. James took over at 3:00, adrenaline ball, PL , PR
+removed the other cholesteaoma which is not a normal part of the procedure therefore delayed timing for this step (another 371sec (6:11))</t>
+  </si>
+  <si>
+    <t xml:space="preserve">*trainee + Dr. James
+PRK, PL, adrenaline ball, PL, PR
+Dr. James took over at 10:10 then at 27:00
+sometimes need a different angle to properly approach the flap and raise it - sometimes need a steep angle, sometimes flat therefore a bendable tip with the round knife tip might help achieving the appropriate angle for different anatomy BUT the tip needs to be stiff </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="12">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,12 +728,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
@@ -862,8 +813,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -891,10 +842,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,19 +1040,19 @@
                   <c:v>1.8666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23.5</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.5499999999999998</c:v>
+                  <c:v>2.0499999999999998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>10</c:v>
+                  <c:v>15.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.625</c:v>
+                  <c:v>2.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4.3666666666666663</c:v>
+                  <c:v>2.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1109,11 +1060,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="100160256"/>
-        <c:axId val="100161792"/>
+        <c:axId val="101896960"/>
+        <c:axId val="101898496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="100160256"/>
+        <c:axId val="101896960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1154,14 +1105,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100161792"/>
+        <c:crossAx val="101898496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="100161792"/>
+        <c:axId val="101898496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1161,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="100160256"/>
+        <c:crossAx val="101896960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1252,7 +1203,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2125,33 +2076,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.28515625" style="7" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" style="7" customWidth="1"/>
-    <col min="3" max="3" width="30.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="30.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" style="17" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" style="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="32" style="7" customWidth="1"/>
+    <col min="7" max="7" width="32" style="7" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="10" style="7" customWidth="1"/>
-    <col min="9" max="9" width="31.140625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" style="7" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="23" style="7" customWidth="1"/>
+    <col min="11" max="11" width="23" style="7" hidden="1" customWidth="1"/>
     <col min="12" max="12" width="9.140625" style="7" customWidth="1"/>
-    <col min="13" max="13" width="42.42578125" style="7" customWidth="1"/>
+    <col min="13" max="13" width="42.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="7" customWidth="1"/>
-    <col min="15" max="15" width="34.42578125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="34.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="16" max="16" width="9.140625" style="7" customWidth="1"/>
-    <col min="17" max="17" width="36" style="7" customWidth="1"/>
+    <col min="17" max="17" width="36" style="7" hidden="1" customWidth="1"/>
     <col min="18" max="18" width="9.140625" style="7" customWidth="1"/>
-    <col min="19" max="19" width="37.140625" style="7" customWidth="1"/>
+    <col min="19" max="19" width="37.140625" style="7" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="9.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="42.42578125" style="7" customWidth="1"/>
+    <col min="21" max="21" width="42.42578125" style="7" hidden="1" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="17" customWidth="1"/>
     <col min="23" max="24" width="8.85546875" style="7" customWidth="1"/>
     <col min="25" max="16384" width="8.85546875" style="7"/>
@@ -2179,39 +2130,39 @@
       </c>
       <c r="D3" s="40"/>
       <c r="E3" s="40" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" s="40"/>
       <c r="G3" s="40" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H3" s="40"/>
       <c r="I3" s="40" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J3" s="40"/>
       <c r="K3" s="40" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="L3" s="40"/>
       <c r="M3" s="40" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="N3" s="40"/>
       <c r="O3" s="40" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="P3" s="40"/>
       <c r="Q3" s="40" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="R3" s="40"/>
       <c r="S3" s="40" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="T3" s="40"/>
       <c r="U3" s="40" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="V3" s="40"/>
     </row>
@@ -2226,70 +2177,70 @@
         <v>6</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="M4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="O4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="P4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="R4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="S4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="T4" s="9" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="U4" s="9" t="s">
         <v>6</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="Y4" s="11" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="Z4" s="11" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="AA4" s="11" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="120.75">
@@ -2298,62 +2249,62 @@
         <v>8</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F5" s="10">
         <v>183</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H5" s="10">
         <v>20</v>
       </c>
       <c r="I5" s="9" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J5" s="10">
         <v>210</v>
       </c>
       <c r="K5" s="31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L5" s="9">
         <v>374</v>
       </c>
       <c r="M5" s="31" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="N5" s="9">
         <v>160</v>
       </c>
       <c r="O5" s="31" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P5" s="9">
         <v>120</v>
       </c>
       <c r="Q5" s="31" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="R5" s="9">
         <v>50</v>
       </c>
       <c r="S5" s="31" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="T5" s="9">
         <f>60+15</f>
         <v>75</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="V5" s="10"/>
       <c r="Y5" s="7">
@@ -2379,7 +2330,7 @@
         <v>140</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F6" s="10">
         <v>240</v>
@@ -2389,13 +2340,13 @@
         <v>105</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J6" s="10">
         <v>155</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L6" s="9">
         <v>187</v>
@@ -2405,21 +2356,21 @@
         <v>120</v>
       </c>
       <c r="O6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P6" s="9">
         <f>6*60+14</f>
         <v>374</v>
       </c>
       <c r="Q6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="R6" s="9">
         <f>2*60+54</f>
         <v>174</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T6" s="9">
         <f>4*60+30</f>
@@ -2439,7 +2390,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="48.75">
+    <row r="7" spans="1:27" ht="60.75">
       <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>10</v>
@@ -2451,50 +2402,50 @@
         <v>80</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F7" s="10">
         <v>350</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="H7" s="10">
         <v>151</v>
       </c>
       <c r="I7" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J7" s="10">
         <v>210</v>
       </c>
       <c r="K7" s="9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="L7" s="9">
         <v>615</v>
       </c>
       <c r="M7" s="9" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="N7" s="9">
         <v>110</v>
       </c>
       <c r="O7" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P7" s="9">
         <v>57</v>
       </c>
       <c r="Q7" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="R7" s="9">
         <f>2*60+30</f>
         <v>150</v>
       </c>
       <c r="S7" s="9" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="T7" s="9">
         <f>5*60</f>
@@ -2525,50 +2476,50 @@
         <v>257</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F8" s="10">
         <v>162</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="H8" s="10">
         <v>210</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="J8" s="10">
         <v>450</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="L8" s="9">
         <v>190</v>
       </c>
       <c r="M8" s="9" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="N8" s="9">
         <v>205</v>
       </c>
       <c r="O8" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="P8" s="9">
         <v>120</v>
       </c>
       <c r="Q8" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="R8" s="9">
         <f>3*60+30</f>
         <v>210</v>
       </c>
       <c r="S8" s="9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="T8" s="9">
         <f>3*60+40</f>
@@ -2593,7 +2544,7 @@
       <c r="C9" s="13"/>
       <c r="D9" s="14"/>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F9" s="14">
         <v>870</v>
@@ -2606,20 +2557,20 @@
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="P9" s="13">
         <v>60</v>
       </c>
       <c r="Q9" s="13" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="R9" s="13">
         <f>3*60+36</f>
         <v>216</v>
       </c>
       <c r="S9" s="13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="T9" s="13">
         <f>15*60+30</f>
@@ -2628,60 +2579,60 @@
       <c r="U9" s="13"/>
       <c r="V9" s="14"/>
     </row>
-    <row r="10" spans="1:27" ht="36.75">
+    <row r="10" spans="1:27" ht="48.75">
       <c r="A10" s="41"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10" s="10">
         <v>78</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F10" s="10">
         <v>60</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H10" s="10">
         <v>124</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="J10" s="10">
         <v>220</v>
       </c>
       <c r="K10" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="L10" s="9">
         <v>220</v>
       </c>
       <c r="M10" s="9" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="N10" s="9">
         <v>46</v>
       </c>
       <c r="O10" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="R10" s="9">
         <f>2*60+35</f>
         <v>155</v>
       </c>
       <c r="S10" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="T10" s="9">
         <f>60+40</f>
@@ -2700,122 +2651,122 @@
         <v>1.8666666666666667</v>
       </c>
     </row>
-    <row r="11" spans="1:27" ht="204.75">
+    <row r="11" spans="1:27" ht="192.75">
       <c r="A11" s="41"/>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>32</v>
+        <v>149</v>
       </c>
       <c r="D11" s="10">
         <v>1048</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
       <c r="F11" s="10">
         <v>1140</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>58</v>
+        <v>151</v>
       </c>
       <c r="H11" s="5">
         <v>2190</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="J11" s="10">
         <v>3600</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>89</v>
+        <v>148</v>
       </c>
       <c r="L11" s="9">
         <v>2880</v>
       </c>
       <c r="M11" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="N11" s="9">
         <v>1256</v>
       </c>
       <c r="O11" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="R11" s="9">
         <f>23*60</f>
         <v>1380</v>
       </c>
       <c r="S11" s="32" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="T11" s="9">
         <f>24*60</f>
         <v>1440</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="V11" s="17">
         <f>6*60+21</f>
         <v>381</v>
       </c>
       <c r="Y11" s="7">
-        <f>AVERAGE(D11:T11)</f>
-        <v>1866.75</v>
+        <f>AVERAGE(D11:V11)</f>
+        <v>1701.6666666666667</v>
       </c>
       <c r="Z11" s="7">
-        <f>MEDIAN(D11:T11)</f>
-        <v>1410</v>
+        <f>MEDIAN(D11:V11)</f>
+        <v>1380</v>
       </c>
       <c r="AA11" s="7">
         <f>Z11/60</f>
-        <v>23.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="36.75">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="48.75">
       <c r="A12" s="41"/>
       <c r="B12" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="10">
         <v>240</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F12" s="10">
         <v>180</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="H12" s="10">
         <v>20</v>
       </c>
       <c r="I12" s="9" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="J12" s="10">
         <v>126</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L12" s="9">
         <v>120</v>
       </c>
       <c r="M12" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="N12" s="9">
         <v>175</v>
@@ -2825,7 +2776,7 @@
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
       <c r="S12" s="9" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="T12" s="9">
         <v>60</v>
@@ -2835,16 +2786,16 @@
         <v>90</v>
       </c>
       <c r="Y12" s="7">
-        <f t="shared" ref="Y12" si="0">AVERAGE(D12:T12)</f>
-        <v>131.57142857142858</v>
+        <f t="shared" ref="Y12:Y13" si="0">AVERAGE(D12:V12)</f>
+        <v>126.375</v>
       </c>
       <c r="Z12" s="7">
-        <f>MEDIAN(D12,F12,H12,J12)</f>
-        <v>153</v>
+        <f t="shared" ref="Z12:Z13" si="1">MEDIAN(D12:V12)</f>
+        <v>123</v>
       </c>
       <c r="AA12" s="7">
         <f>Z12/60</f>
-        <v>2.5499999999999998</v>
+        <v>2.0499999999999998</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="84.75">
@@ -2853,80 +2804,80 @@
         <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>36</v>
+        <v>146</v>
       </c>
       <c r="D13" s="10">
         <v>795</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F13" s="10">
         <v>1260</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="H13" s="10">
         <v>225</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="J13" s="5">
         <v>1510</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="L13" s="9">
         <v>1035</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="N13" s="9">
         <v>225</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="P13" s="9">
         <f>9*60+10</f>
         <v>550</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="R13" s="9">
         <f>22*60</f>
         <v>1320</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="T13" s="9">
         <f>4*60+15</f>
         <v>255</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="V13" s="17">
         <f>9*60+31+8*60+16+3*60</f>
         <v>1247</v>
       </c>
       <c r="Y13" s="7">
-        <f>AVERAGE(D13:T13,J14:J15)</f>
-        <v>734.09090909090912</v>
+        <f t="shared" si="0"/>
+        <v>842.2</v>
       </c>
       <c r="Z13" s="7">
-        <f>MEDIAN(D13:T13,J14:J15)</f>
-        <v>600</v>
+        <f t="shared" si="1"/>
+        <v>915</v>
       </c>
       <c r="AA13" s="7">
         <f>Z13/60</f>
-        <v>10</v>
+        <v>15.25</v>
       </c>
     </row>
     <row r="14" spans="1:27" s="16" customFormat="1">
@@ -2987,7 +2938,7 @@
         <v>16</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D16" s="10">
         <v>150</v>
@@ -2997,31 +2948,31 @@
         <v>120</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H16" s="10">
         <v>165</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="J16" s="17">
         <v>660</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>92</v>
+        <v>145</v>
       </c>
       <c r="L16" s="9">
         <v>360</v>
       </c>
       <c r="M16" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="N16" s="9">
         <v>150</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="P16" s="9">
         <f>7*60+50</f>
@@ -3029,32 +2980,32 @@
       </c>
       <c r="Q16" s="9"/>
       <c r="R16" s="32" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="T16" s="9">
         <v>60</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="V16" s="17">
         <f>2*60+60+44+50</f>
         <v>274</v>
       </c>
       <c r="Y16" s="7">
-        <f>AVERAGE(D16:P16,T16,J17:J18)</f>
-        <v>279.5</v>
+        <f>AVERAGE(D16:P16,T16:V16,J17:J18)</f>
+        <v>279</v>
       </c>
       <c r="Z16" s="7">
-        <f>MEDIAN(D16,F16,H16,J16,J17:J18)</f>
-        <v>157.5</v>
+        <f>MEDIAN(D16,F16,H16,J16,J17:J18,L16:P16,T16,V16)</f>
+        <v>165</v>
       </c>
       <c r="AA16" s="7">
         <f>Z16/60</f>
-        <v>2.625</v>
+        <v>2.75</v>
       </c>
     </row>
     <row r="17" spans="1:27" s="16" customFormat="1">
@@ -3121,13 +3072,13 @@
         <v>28</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F19" s="10">
         <v>262</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H19" s="10">
         <v>355</v>
@@ -3153,26 +3104,26 @@
         <v>120</v>
       </c>
       <c r="S19" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="T19" s="9">
         <f>4*60</f>
         <v>240</v>
       </c>
       <c r="Y19" s="7">
-        <f>AVERAGE(F19,H19,J19)</f>
-        <v>265.66666666666669</v>
+        <f>AVERAGE(F19:T19)</f>
+        <v>189.625</v>
       </c>
       <c r="Z19" s="7">
-        <f>MEDIAN(F19,H19,J19)</f>
-        <v>262</v>
+        <f>MEDIAN(F19:T19)</f>
+        <v>150</v>
       </c>
       <c r="AA19" s="7">
         <f>Z19/60</f>
-        <v>4.3666666666666663</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" s="35" customFormat="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="35" customFormat="1" ht="24.75">
       <c r="A20" s="34" t="s">
         <v>3</v>
       </c>
@@ -3180,16 +3131,25 @@
         <v>4</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="F20" s="42"/>
       <c r="V20" s="28"/>
-    </row>
-    <row r="21" spans="1:27" ht="24.75">
+      <c r="Y20" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z20" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA20" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="37" t="s">
         <v>18</v>
       </c>
@@ -3215,17 +3175,29 @@
         <v>8</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D22" s="10">
         <v>48</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F22" s="9">
         <f>3*60+26+60*2</f>
         <v>326</v>
+      </c>
+      <c r="Y22" s="7">
+        <f>AVERAGE(D22:X22)</f>
+        <v>187</v>
+      </c>
+      <c r="Z22" s="7">
+        <f>MEDIAN(D22:X22)</f>
+        <v>187</v>
+      </c>
+      <c r="AA22" s="7">
+        <f>Z22/60</f>
+        <v>3.1166666666666667</v>
       </c>
     </row>
     <row r="23" spans="1:27" ht="24.75">
@@ -3238,11 +3210,23 @@
         <v>49</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F23" s="9">
         <f>4*60+44</f>
         <v>284</v>
+      </c>
+      <c r="Y23" s="7">
+        <f t="shared" ref="Y23:Y32" si="2">AVERAGE(D23:X23)</f>
+        <v>166.5</v>
+      </c>
+      <c r="Z23" s="7">
+        <f t="shared" ref="Z23:Z32" si="3">MEDIAN(D23:X23)</f>
+        <v>166.5</v>
+      </c>
+      <c r="AA23" s="7">
+        <f t="shared" ref="AA23:AA32" si="4">Z23/60</f>
+        <v>2.7749999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:27" ht="36.75">
@@ -3251,17 +3235,29 @@
         <v>10</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" s="10">
         <v>104</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="F24" s="9">
         <f>3*60+40+40+60+40</f>
         <v>360</v>
+      </c>
+      <c r="Y24" s="7">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="Z24" s="7">
+        <f t="shared" si="3"/>
+        <v>232</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="4"/>
+        <v>3.8666666666666667</v>
       </c>
     </row>
     <row r="25" spans="1:27" ht="36.75">
@@ -3270,17 +3266,29 @@
         <v>11</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="D25" s="10">
         <v>210</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F25" s="9">
         <f>2*60+40</f>
         <v>160</v>
+      </c>
+      <c r="Y25" s="7">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="Z25" s="7">
+        <f t="shared" si="3"/>
+        <v>185</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="4"/>
+        <v>3.0833333333333335</v>
       </c>
     </row>
     <row r="26" spans="1:27" ht="24.75">
@@ -3289,17 +3297,29 @@
         <v>12</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="D26" s="10">
         <v>35</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="F26" s="9">
         <f>60+17</f>
         <v>77</v>
+      </c>
+      <c r="Y26" s="7">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="Z26" s="7">
+        <f t="shared" si="3"/>
+        <v>56</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="4"/>
+        <v>0.93333333333333335</v>
       </c>
     </row>
     <row r="27" spans="1:27" ht="60.75">
@@ -3308,17 +3328,29 @@
         <v>13</v>
       </c>
       <c r="C27" s="33" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D27" s="10">
         <v>525</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="F27" s="9">
         <f>60*60+5</f>
         <v>3605</v>
+      </c>
+      <c r="Y27" s="7">
+        <f t="shared" si="2"/>
+        <v>2065</v>
+      </c>
+      <c r="Z27" s="7">
+        <f t="shared" si="3"/>
+        <v>2065</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="4"/>
+        <v>34.416666666666664</v>
       </c>
     </row>
     <row r="28" spans="1:27">
@@ -3329,10 +3361,22 @@
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="F28" s="9">
         <v>60</v>
+      </c>
+      <c r="Y28" s="7">
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="Z28" s="7">
+        <f t="shared" si="3"/>
+        <v>60</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:27" ht="24.75">
@@ -3346,11 +3390,23 @@
         <v>1645</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F29" s="9">
         <f>60*10</f>
         <v>600</v>
+      </c>
+      <c r="Y29" s="7">
+        <f t="shared" si="2"/>
+        <v>1122.5</v>
+      </c>
+      <c r="Z29" s="7">
+        <f t="shared" si="3"/>
+        <v>1122.5</v>
+      </c>
+      <c r="AA29" s="7">
+        <f t="shared" si="4"/>
+        <v>18.708333333333332</v>
       </c>
     </row>
     <row r="30" spans="1:27">
@@ -3359,17 +3415,29 @@
         <v>16</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="D30" s="10">
         <v>239</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F30" s="9">
         <f>2*60</f>
         <v>120</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" si="2"/>
+        <v>179.5</v>
+      </c>
+      <c r="Z30" s="7">
+        <f t="shared" si="3"/>
+        <v>179.5</v>
+      </c>
+      <c r="AA30" s="7">
+        <f t="shared" si="4"/>
+        <v>2.9916666666666667</v>
       </c>
     </row>
     <row r="31" spans="1:27" ht="24.75">
@@ -3382,40 +3450,64 @@
         <v>186</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F31" s="9">
         <f>4*60+20</f>
         <v>260</v>
       </c>
+      <c r="Y31" s="7">
+        <f t="shared" si="2"/>
+        <v>223</v>
+      </c>
+      <c r="Z31" s="7">
+        <f t="shared" si="3"/>
+        <v>223</v>
+      </c>
+      <c r="AA31" s="7">
+        <f t="shared" si="4"/>
+        <v>3.7166666666666668</v>
+      </c>
     </row>
     <row r="32" spans="1:27" ht="45">
       <c r="B32" s="33" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C32" s="36" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D32" s="17">
         <v>1003</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F32" s="7">
         <f>5*60</f>
         <v>300</v>
       </c>
+      <c r="Y32" s="7">
+        <f t="shared" si="2"/>
+        <v>651.5</v>
+      </c>
+      <c r="Z32" s="7">
+        <f t="shared" si="3"/>
+        <v>651.5</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="4"/>
+        <v>10.858333333333333</v>
+      </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B37" s="7" t="s">
         <v>5</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -3539,22 +3631,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E1" s="21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="19" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="J1" s="19" t="s">
         <v>7</v>
@@ -3590,7 +3682,7 @@
         <v>210</v>
       </c>
       <c r="H2" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I2" s="20">
         <v>183</v>
@@ -3627,7 +3719,7 @@
         <v>155</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I3" s="20">
         <v>20</v>
@@ -3664,7 +3756,7 @@
         <v>210</v>
       </c>
       <c r="H4" s="20" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="I4" s="20">
         <v>210</v>
@@ -3701,7 +3793,7 @@
         <v>450</v>
       </c>
       <c r="H5" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I5" s="20">
         <v>140</v>
@@ -3738,7 +3830,7 @@
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="H6" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I6" s="20">
         <v>240</v>
@@ -3765,7 +3857,7 @@
         <v>220</v>
       </c>
       <c r="H7" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I7" s="20">
         <v>105</v>
@@ -3792,7 +3884,7 @@
         <v>3600</v>
       </c>
       <c r="H8" s="21" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I8" s="20">
         <v>155</v>
@@ -3819,7 +3911,7 @@
         <v>126</v>
       </c>
       <c r="H9" s="29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I9" s="20">
         <v>80</v>
@@ -3846,7 +3938,7 @@
         <v>1510</v>
       </c>
       <c r="H10" s="29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I10" s="20">
         <v>350</v>
@@ -3865,7 +3957,7 @@
         <v>600</v>
       </c>
       <c r="H11" s="29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I11" s="20">
         <v>151</v>
@@ -3884,7 +3976,7 @@
         <v>300</v>
       </c>
       <c r="H12" s="29" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="I12" s="20">
         <v>210</v>
@@ -3911,7 +4003,7 @@
         <v>660</v>
       </c>
       <c r="H13" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I13" s="20">
         <v>257</v>
@@ -3930,7 +4022,7 @@
         <v>600</v>
       </c>
       <c r="H14" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I14" s="20">
         <v>162</v>
@@ -3949,7 +4041,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I15" s="20">
         <v>210</v>
@@ -3976,7 +4068,7 @@
         <v>180</v>
       </c>
       <c r="H16" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I16" s="20">
         <v>450</v>
@@ -3988,7 +4080,7 @@
     </row>
     <row r="17" spans="8:10">
       <c r="H17" s="29" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I17" s="24">
         <v>870</v>
@@ -4000,7 +4092,7 @@
     </row>
     <row r="18" spans="8:10">
       <c r="H18" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I18" s="20">
         <v>78</v>
@@ -4012,7 +4104,7 @@
     </row>
     <row r="19" spans="8:10">
       <c r="H19" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I19" s="20">
         <v>60</v>
@@ -4024,7 +4116,7 @@
     </row>
     <row r="20" spans="8:10">
       <c r="H20" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I20" s="20">
         <v>124</v>
@@ -4036,7 +4128,7 @@
     </row>
     <row r="21" spans="8:10">
       <c r="H21" s="29" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I21" s="20">
         <v>220</v>
@@ -4048,7 +4140,7 @@
     </row>
     <row r="22" spans="8:10">
       <c r="H22" s="29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I22" s="20">
         <v>1048</v>
@@ -4060,7 +4152,7 @@
     </row>
     <row r="23" spans="8:10">
       <c r="H23" s="29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I23" s="20">
         <v>1140</v>
@@ -4072,7 +4164,7 @@
     </row>
     <row r="24" spans="8:10">
       <c r="H24" s="29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I24" s="26">
         <v>2190</v>
@@ -4084,7 +4176,7 @@
     </row>
     <row r="25" spans="8:10">
       <c r="H25" s="29" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I25" s="20">
         <v>3600</v>
@@ -4096,7 +4188,7 @@
     </row>
     <row r="26" spans="8:10">
       <c r="H26" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I26" s="20">
         <v>240</v>
@@ -4108,7 +4200,7 @@
     </row>
     <row r="27" spans="8:10">
       <c r="H27" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I27" s="20">
         <v>180</v>
@@ -4120,7 +4212,7 @@
     </row>
     <row r="28" spans="8:10">
       <c r="H28" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I28" s="20">
         <v>20</v>
@@ -4132,7 +4224,7 @@
     </row>
     <row r="29" spans="8:10">
       <c r="H29" s="29" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I29" s="20">
         <v>126</v>
@@ -4144,7 +4236,7 @@
     </row>
     <row r="30" spans="8:10">
       <c r="H30" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I30" s="20">
         <v>795</v>
@@ -4156,7 +4248,7 @@
     </row>
     <row r="31" spans="8:10">
       <c r="H31" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I31" s="20">
         <v>1260</v>
@@ -4168,7 +4260,7 @@
     </row>
     <row r="32" spans="8:10">
       <c r="H32" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I32" s="20">
         <v>225</v>
@@ -4180,7 +4272,7 @@
     </row>
     <row r="33" spans="8:10">
       <c r="H33" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I33" s="26">
         <v>1510</v>
@@ -4192,7 +4284,7 @@
     </row>
     <row r="34" spans="8:10">
       <c r="H34" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I34" s="30">
         <v>600</v>
@@ -4204,7 +4296,7 @@
     </row>
     <row r="35" spans="8:10">
       <c r="H35" s="29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I35" s="30">
         <v>300</v>
@@ -4216,7 +4308,7 @@
     </row>
     <row r="36" spans="8:10">
       <c r="H36" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I36" s="20">
         <v>150</v>
@@ -4228,7 +4320,7 @@
     </row>
     <row r="37" spans="8:10">
       <c r="H37" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I37" s="20">
         <v>120</v>
@@ -4240,7 +4332,7 @@
     </row>
     <row r="38" spans="8:10">
       <c r="H38" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I38" s="20">
         <v>165</v>
@@ -4252,7 +4344,7 @@
     </row>
     <row r="39" spans="8:10">
       <c r="H39" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I39" s="28">
         <v>660</v>
@@ -4264,7 +4356,7 @@
     </row>
     <row r="40" spans="8:10">
       <c r="H40" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I40" s="30">
         <v>600</v>
@@ -4276,7 +4368,7 @@
     </row>
     <row r="41" spans="8:10">
       <c r="H41" s="29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I41" s="30">
         <v>60</v>
@@ -4288,7 +4380,7 @@
     </row>
     <row r="42" spans="8:10">
       <c r="H42" s="29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I42" s="20">
         <v>262</v>
@@ -4300,7 +4392,7 @@
     </row>
     <row r="43" spans="8:10">
       <c r="H43" s="29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I43" s="20">
         <v>355</v>
@@ -4312,7 +4404,7 @@
     </row>
     <row r="44" spans="8:10">
       <c r="H44" s="29" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="I44" s="20">
         <v>180</v>

--- a/Time Flow Study/Time Flow Study 23-May-2017.xlsx
+++ b/Time Flow Study/Time Flow Study 23-May-2017.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="163">
   <si>
     <t>Step</t>
   </si>
@@ -579,12 +579,6 @@
     <t>Study Number: 86787</t>
   </si>
   <si>
-    <t>Tympanoplasty 23-May-2017 4:00 pm,
-Dr. James
-underlay 
-CONSENT: yes in patient chart</t>
-  </si>
-  <si>
     <t>since udnerlay therefore faster raising flap
 PL, PR, forceps, PR, PL, adren ball</t>
   </si>
@@ -675,12 +669,70 @@
 Dr. James took over at 10:10 then at 27:00
 sometimes need a different angle to properly approach the flap and raise it - sometimes need a steep angle, sometimes flat therefore a bendable tip with the round knife tip might help achieving the appropriate angle for different anatomy BUT the tip needs to be stiff </t>
   </si>
+  <si>
+    <t>Study Number: 58931</t>
+  </si>
+  <si>
+    <t>Study Number: XXXXX</t>
+  </si>
+  <si>
+    <t>Tympanoplasty 23-May-2017 4:00 pm,
+Dr. James
+underlay, biodesign
+CONSENT: yes in patient chart</t>
+  </si>
+  <si>
+    <t>scissors, sucker</t>
+  </si>
+  <si>
+    <t>Left Tympanoplasty 18-Jul-2017 11am
+Dr. James
+Underlay, biodesign
+CONSENT: yes in patient chart
+Dr. James was teaching but whole surgery done by him
+sucker</t>
+  </si>
+  <si>
+    <t>syringe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">knife*, rosen, cup forceps, left biting forceps, scissors, sucker, scissors, down biting cups, forceps
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*knife shaft kept bumping against the ear canal wall</t>
+    </r>
+  </si>
+  <si>
+    <t>PRK, took out adren ball, forceps, PRK, PL, ball, PR, Rosen, PR, aligator, PR, cup forceps, PR, Thomassin, PR, rosen, adren wash out</t>
+  </si>
+  <si>
+    <t>biodesign, scissors</t>
+  </si>
+  <si>
+    <t>PR, left cups, PR, cups, PL, (this was all to move the flap out of the way to place the graft)
+aligator to introduce graft, Rosen, PL</t>
+  </si>
+  <si>
+    <t>18 sucker to "pick up" the graft, derlacki, sucker, Thomassin</t>
+  </si>
+  <si>
+    <t>gel foam + bitumen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -757,6 +809,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -816,7 +875,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -902,6 +961,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -962,7 +1024,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collection Form'!$AA$4</c:f>
+              <c:f>'Data Collection Form'!$AJ$4</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1020,7 +1082,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collection Form'!$AA$5:$AA$19</c:f>
+              <c:f>'Data Collection Form'!$AJ$5:$AJ$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1028,25 +1090,25 @@
                   <c:v>2.3333333333333335</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9</c:v>
+                  <c:v>2.7416666666666667</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.5166666666666666</c:v>
+                  <c:v>2.5083333333333333</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>3.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.8666666666666667</c:v>
+                  <c:v>1.6666666666666667</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23</c:v>
+                  <c:v>21.966666666666665</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.0499999999999998</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15.25</c:v>
+                  <c:v>13.25</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>2.75</c:v>
@@ -1060,11 +1122,11 @@
         </c:ser>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="101896960"/>
-        <c:axId val="101898496"/>
+        <c:axId val="93242112"/>
+        <c:axId val="93243648"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="101896960"/>
+        <c:axId val="93242112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,14 +1167,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101898496"/>
+        <c:crossAx val="93243648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="101898496"/>
+        <c:axId val="93243648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1161,7 +1223,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="101896960"/>
+        <c:crossAx val="93242112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1203,7 +1265,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1756,16 +1818,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>86591</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>175491</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1145311</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>40410</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>1238250</xdr:rowOff>
+      <xdr:rowOff>363683</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2074,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA38"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="AD30" sqref="AD30"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="AG21" sqref="AG21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -2089,36 +2151,37 @@
     <col min="5" max="5" width="33.85546875" style="7" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" style="7" customWidth="1"/>
     <col min="7" max="7" width="32" style="7" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10" style="7" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="31.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="7" hidden="1" customWidth="1"/>
     <col min="11" max="11" width="23" style="7" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="7" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="42.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="9.140625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="9.140625" style="7" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="34.42578125" style="7" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="7" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" style="7" hidden="1" customWidth="1"/>
     <col min="17" max="17" width="36" style="7" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="9.140625" style="7" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" style="7" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="37.140625" style="7" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" style="7" customWidth="1"/>
-    <col min="21" max="21" width="42.42578125" style="7" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="7" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="42.42578125" style="7" customWidth="1"/>
     <col min="22" max="22" width="9.140625" style="17" customWidth="1"/>
-    <col min="23" max="24" width="8.85546875" style="7" customWidth="1"/>
+    <col min="23" max="23" width="33" style="36" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="7" customWidth="1"/>
     <col min="25" max="16384" width="8.85546875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="38" customFormat="1">
+    <row r="1" spans="1:36" s="38" customFormat="1">
       <c r="A1" s="38" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="39" customFormat="1" ht="15" customHeight="1">
+    <row r="2" spans="1:36" s="39" customFormat="1" ht="15" customHeight="1">
       <c r="A2" s="39" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:27">
+    <row r="3" spans="1:36">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
@@ -2165,8 +2228,20 @@
         <v>127</v>
       </c>
       <c r="V3" s="40"/>
-    </row>
-    <row r="4" spans="1:27" ht="24.75">
+      <c r="W3" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="AB3" s="40"/>
+    </row>
+    <row r="4" spans="1:36" ht="24.75">
       <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
@@ -2233,17 +2308,35 @@
       <c r="V4" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="Y4" s="11" t="s">
+      <c r="W4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AA4" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="AB4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH4" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Z4" s="11" t="s">
+      <c r="AI4" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AA4" s="11" t="s">
+      <c r="AJ4" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="120.75">
+    <row r="5" spans="1:36" ht="120.75">
       <c r="A5" s="41"/>
       <c r="B5" s="8" t="s">
         <v>8</v>
@@ -2304,23 +2397,29 @@
         <v>75</v>
       </c>
       <c r="U5" s="31" t="s">
-        <v>128</v>
+        <v>153</v>
       </c>
       <c r="V5" s="10"/>
-      <c r="Y5" s="7">
-        <f>AVERAGE(F5:T5)</f>
-        <v>149</v>
-      </c>
-      <c r="Z5" s="7">
-        <f>MEDIAN(F5:T5)</f>
+      <c r="W5" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="X5" s="7">
+        <v>40</v>
+      </c>
+      <c r="AH5" s="7">
+        <f>AVERAGE(F5:AB5)</f>
+        <v>136.88888888888889</v>
+      </c>
+      <c r="AI5" s="7">
+        <f>MEDIAN(F5:T5,AB5)</f>
         <v>140</v>
       </c>
-      <c r="AA5" s="7">
-        <f>Z5/60</f>
+      <c r="AJ5" s="7">
+        <f>AI5/60</f>
         <v>2.3333333333333335</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="24.75">
+    <row r="6" spans="1:36" ht="24.75">
       <c r="A6" s="41"/>
       <c r="B6" s="8" t="s">
         <v>9</v>
@@ -2377,20 +2476,27 @@
         <v>270</v>
       </c>
       <c r="V6" s="10"/>
-      <c r="Y6" s="7">
-        <f>AVERAGE(D6:T6)</f>
-        <v>196.11111111111111</v>
-      </c>
-      <c r="Z6" s="7">
-        <f>MEDIAN(D6:T6)</f>
-        <v>174</v>
-      </c>
-      <c r="AA6" s="7">
-        <f>Z6/60</f>
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="60.75">
+      <c r="W6" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="X6" s="7">
+        <f>60+24</f>
+        <v>84</v>
+      </c>
+      <c r="AH6" s="7">
+        <f t="shared" ref="AH6:AH7" si="0">AVERAGE(F6:AB6)</f>
+        <v>189.88888888888889</v>
+      </c>
+      <c r="AI6" s="7">
+        <f>MEDIAN(D6:AB6)</f>
+        <v>164.5</v>
+      </c>
+      <c r="AJ6" s="7">
+        <f>AI6/60</f>
+        <v>2.7416666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" ht="60.75">
       <c r="A7" s="41"/>
       <c r="B7" s="8" t="s">
         <v>10</v>
@@ -2451,20 +2557,27 @@
         <f>5*60</f>
         <v>300</v>
       </c>
-      <c r="Y7" s="7">
-        <f>AVERAGE(D7:T7)</f>
-        <v>224.77777777777777</v>
-      </c>
-      <c r="Z7" s="7">
-        <f>MEDIAN(D7:T7)</f>
-        <v>151</v>
-      </c>
-      <c r="AA7" s="7">
-        <f>Z7/60</f>
-        <v>2.5166666666666666</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="72.75" customHeight="1">
+      <c r="W7" s="36" t="s">
+        <v>154</v>
+      </c>
+      <c r="X7" s="7">
+        <f>60+30</f>
+        <v>90</v>
+      </c>
+      <c r="AH7" s="7">
+        <f t="shared" si="0"/>
+        <v>225.88888888888889</v>
+      </c>
+      <c r="AI7" s="7">
+        <f>MEDIAN(D7:AB7)</f>
+        <v>150.5</v>
+      </c>
+      <c r="AJ7" s="7">
+        <f>AI7/60</f>
+        <v>2.5083333333333333</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="72.75" customHeight="1">
       <c r="A8" s="41"/>
       <c r="B8" s="8" t="s">
         <v>11</v>
@@ -2525,20 +2638,27 @@
         <f>3*60+40</f>
         <v>220</v>
       </c>
-      <c r="Y8" s="7">
-        <f>AVERAGE(D8:T8,F9,P9:T9)</f>
-        <v>315.38461538461536</v>
-      </c>
-      <c r="Z8" s="7">
-        <f>MEDIAN(D8:T8,F9,P9:T9)</f>
+      <c r="W8" s="36" t="s">
+        <v>157</v>
+      </c>
+      <c r="X8" s="7">
+        <f>3*60+5</f>
+        <v>185</v>
+      </c>
+      <c r="AH8" s="7">
+        <f>AVERAGE(D8:T8,F9,P9:T9, X8)</f>
+        <v>306.07142857142856</v>
+      </c>
+      <c r="AI8" s="7">
+        <f>MEDIAN(D8:T8,F9,P9:T9,X8,Z8,AB8)</f>
         <v>210</v>
       </c>
-      <c r="AA8" s="7">
-        <f>Z8/60</f>
+      <c r="AJ8" s="7">
+        <f>AI8/60</f>
         <v>3.5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" s="16" customFormat="1" ht="36.75">
+    <row r="9" spans="1:36" s="16" customFormat="1" ht="36.75">
       <c r="A9" s="41"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -2578,8 +2698,9 @@
       </c>
       <c r="U9" s="13"/>
       <c r="V9" s="14"/>
-    </row>
-    <row r="10" spans="1:27" ht="48.75">
+      <c r="W9" s="43"/>
+    </row>
+    <row r="10" spans="1:36" ht="48.75">
       <c r="A10" s="41"/>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -2638,50 +2759,56 @@
         <f>60+40</f>
         <v>100</v>
       </c>
-      <c r="Y10" s="7">
-        <f>AVERAGE(D10:T10)</f>
-        <v>125.375</v>
-      </c>
-      <c r="Z10" s="7">
-        <f>MEDIAN(D10:T10)</f>
-        <v>112</v>
-      </c>
-      <c r="AA10" s="7">
-        <f>Z10/60</f>
-        <v>1.8666666666666667</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="192.75">
+      <c r="W10" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="X10" s="7">
+        <v>31</v>
+      </c>
+      <c r="AH10" s="7">
+        <f>AVERAGE(D10:AB10)</f>
+        <v>114.88888888888889</v>
+      </c>
+      <c r="AI10" s="7">
+        <f>MEDIAN(D10:AB10)</f>
+        <v>100</v>
+      </c>
+      <c r="AJ10" s="7">
+        <f>AI10/60</f>
+        <v>1.6666666666666667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="192.75">
       <c r="A11" s="41"/>
       <c r="B11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D11" s="10">
         <v>1048</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F11" s="10">
         <v>1140</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H11" s="5">
         <v>2190</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="J11" s="10">
         <v>3600</v>
       </c>
       <c r="K11" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L11" s="9">
         <v>2880</v>
@@ -2711,26 +2838,33 @@
         <v>1440</v>
       </c>
       <c r="U11" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="V11" s="17">
         <f>6*60+21</f>
         <v>381</v>
       </c>
-      <c r="Y11" s="7">
-        <f>AVERAGE(D11:V11)</f>
-        <v>1701.6666666666667</v>
-      </c>
-      <c r="Z11" s="7">
-        <f>MEDIAN(D11:V11)</f>
-        <v>1380</v>
-      </c>
-      <c r="AA11" s="7">
-        <f>Z11/60</f>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="48.75">
+      <c r="W11" s="36" t="s">
+        <v>158</v>
+      </c>
+      <c r="X11" s="7">
+        <f>11*60+55</f>
+        <v>715</v>
+      </c>
+      <c r="AH11" s="7">
+        <f t="shared" ref="AH11:AH12" si="1">AVERAGE(D11:AB11)</f>
+        <v>1603</v>
+      </c>
+      <c r="AI11" s="7">
+        <f t="shared" ref="AI11:AI12" si="2">MEDIAN(D11:AB11)</f>
+        <v>1318</v>
+      </c>
+      <c r="AJ11" s="7">
+        <f>AI11/60</f>
+        <v>21.966666666666665</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" ht="36.75">
       <c r="A12" s="41"/>
       <c r="B12" s="8" t="s">
         <v>14</v>
@@ -2785,26 +2919,32 @@
       <c r="V12" s="10">
         <v>90</v>
       </c>
-      <c r="Y12" s="7">
-        <f t="shared" ref="Y12:Y13" si="0">AVERAGE(D12:V12)</f>
-        <v>126.375</v>
-      </c>
-      <c r="Z12" s="7">
-        <f t="shared" ref="Z12:Z13" si="1">MEDIAN(D12:V12)</f>
-        <v>123</v>
-      </c>
-      <c r="AA12" s="7">
-        <f>Z12/60</f>
-        <v>2.0499999999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="84.75">
+      <c r="W12" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="X12" s="7">
+        <v>90</v>
+      </c>
+      <c r="AH12" s="7">
+        <f t="shared" si="1"/>
+        <v>122.33333333333333</v>
+      </c>
+      <c r="AI12" s="7">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="AJ12" s="7">
+        <f>AI12/60</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" ht="84.75">
       <c r="A13" s="41"/>
       <c r="B13" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D13" s="10">
         <v>795</v>
@@ -2861,26 +3001,33 @@
         <v>255</v>
       </c>
       <c r="U13" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="V13" s="17">
         <f>9*60+31+8*60+16+3*60</f>
         <v>1247</v>
       </c>
-      <c r="Y13" s="7">
-        <f t="shared" si="0"/>
-        <v>842.2</v>
-      </c>
-      <c r="Z13" s="7">
-        <f t="shared" si="1"/>
-        <v>915</v>
-      </c>
-      <c r="AA13" s="7">
-        <f>Z13/60</f>
-        <v>15.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="16" customFormat="1">
+      <c r="W13" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="X13" s="7">
+        <f>60*7+10</f>
+        <v>430</v>
+      </c>
+      <c r="AH13" s="7">
+        <f>AVERAGE(D13:AD13)</f>
+        <v>804.72727272727275</v>
+      </c>
+      <c r="AI13" s="7">
+        <f>MEDIAN(D13:AF13)</f>
+        <v>795</v>
+      </c>
+      <c r="AJ13" s="7">
+        <f>AI13/60</f>
+        <v>13.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" s="16" customFormat="1">
       <c r="A14" s="41"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -2905,8 +3052,9 @@
       <c r="T14" s="13"/>
       <c r="U14" s="13"/>
       <c r="V14" s="14"/>
-    </row>
-    <row r="15" spans="1:27" s="16" customFormat="1">
+      <c r="W14" s="43"/>
+    </row>
+    <row r="15" spans="1:36" s="16" customFormat="1">
       <c r="A15" s="41"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -2931,8 +3079,9 @@
       <c r="T15" s="13"/>
       <c r="U15" s="13"/>
       <c r="V15" s="14"/>
-    </row>
-    <row r="16" spans="1:27" ht="84.75">
+      <c r="W15" s="43"/>
+    </row>
+    <row r="16" spans="1:36" ht="84.75">
       <c r="A16" s="41"/>
       <c r="B16" s="8" t="s">
         <v>16</v>
@@ -2960,7 +3109,7 @@
         <v>660</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="L16" s="9">
         <v>360</v>
@@ -2989,26 +3138,33 @@
         <v>60</v>
       </c>
       <c r="U16" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V16" s="17">
         <f>2*60+60+44+50</f>
         <v>274</v>
       </c>
-      <c r="Y16" s="7">
-        <f>AVERAGE(D16:P16,T16:V16,J17:J18)</f>
-        <v>279</v>
-      </c>
-      <c r="Z16" s="7">
+      <c r="W16" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="X16" s="7">
+        <f>60+41</f>
+        <v>101</v>
+      </c>
+      <c r="AH16" s="7">
+        <f>AVERAGE(D16:P16,T16:V16,J17:J18,W16:AF16)</f>
+        <v>264.16666666666669</v>
+      </c>
+      <c r="AI16" s="7">
         <f>MEDIAN(D16,F16,H16,J16,J17:J18,L16:P16,T16,V16)</f>
         <v>165</v>
       </c>
-      <c r="AA16" s="7">
-        <f>Z16/60</f>
+      <c r="AJ16" s="7">
+        <f>AI16/60</f>
         <v>2.75</v>
       </c>
     </row>
-    <row r="17" spans="1:27" s="16" customFormat="1">
+    <row r="17" spans="1:36" s="16" customFormat="1">
       <c r="A17" s="41"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3033,8 +3189,9 @@
       <c r="T17" s="13"/>
       <c r="U17" s="13"/>
       <c r="V17" s="14"/>
-    </row>
-    <row r="18" spans="1:27" s="16" customFormat="1">
+      <c r="W17" s="43"/>
+    </row>
+    <row r="18" spans="1:36" s="16" customFormat="1">
       <c r="A18" s="41"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -3059,8 +3216,9 @@
       <c r="T18" s="13"/>
       <c r="U18" s="13"/>
       <c r="V18" s="14"/>
-    </row>
-    <row r="19" spans="1:27" ht="24.75">
+      <c r="W18" s="43"/>
+    </row>
+    <row r="19" spans="1:36" ht="24.75">
       <c r="A19" s="41"/>
       <c r="B19" s="8" t="s">
         <v>17</v>
@@ -3110,20 +3268,27 @@
         <f>4*60</f>
         <v>240</v>
       </c>
-      <c r="Y19" s="7">
-        <f>AVERAGE(F19:T19)</f>
-        <v>189.625</v>
-      </c>
-      <c r="Z19" s="7">
+      <c r="W19" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="X19" s="7">
+        <f>3*60+30</f>
+        <v>210</v>
+      </c>
+      <c r="AH19" s="7">
+        <f>AVERAGE(F19:AG19)</f>
+        <v>191.88888888888889</v>
+      </c>
+      <c r="AI19" s="7">
         <f>MEDIAN(F19:T19)</f>
         <v>150</v>
       </c>
-      <c r="AA19" s="7">
-        <f>Z19/60</f>
+      <c r="AJ19" s="7">
+        <f>AI19/60</f>
         <v>2.5</v>
       </c>
     </row>
-    <row r="20" spans="1:27" s="35" customFormat="1" ht="24.75">
+    <row r="20" spans="1:36" s="35" customFormat="1" ht="24.75">
       <c r="A20" s="34" t="s">
         <v>3</v>
       </c>
@@ -3131,25 +3296,26 @@
         <v>4</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D20" s="42"/>
       <c r="E20" s="42" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="F20" s="42"/>
       <c r="V20" s="28"/>
-      <c r="Y20" s="11" t="s">
+      <c r="W20" s="36"/>
+      <c r="AH20" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="Z20" s="11" t="s">
+      <c r="AI20" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="AA20" s="11" t="s">
+      <c r="AJ20" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:27">
+    <row r="21" spans="1:36">
       <c r="A21" s="37" t="s">
         <v>18</v>
       </c>
@@ -3169,7 +3335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="60.75">
+    <row r="22" spans="1:36" ht="60.75">
       <c r="A22" s="37"/>
       <c r="B22" s="9" t="s">
         <v>8</v>
@@ -3181,26 +3347,26 @@
         <v>48</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F22" s="9">
         <f>3*60+26+60*2</f>
         <v>326</v>
       </c>
-      <c r="Y22" s="7">
+      <c r="AH22" s="7">
         <f>AVERAGE(D22:X22)</f>
         <v>187</v>
       </c>
-      <c r="Z22" s="7">
+      <c r="AI22" s="7">
         <f>MEDIAN(D22:X22)</f>
         <v>187</v>
       </c>
-      <c r="AA22" s="7">
-        <f>Z22/60</f>
+      <c r="AJ22" s="7">
+        <f>AI22/60</f>
         <v>3.1166666666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="24.75">
+    <row r="23" spans="1:36" ht="24.75">
       <c r="A23" s="37"/>
       <c r="B23" s="9" t="s">
         <v>9</v>
@@ -3210,26 +3376,26 @@
         <v>49</v>
       </c>
       <c r="E23" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="F23" s="9">
         <f>4*60+44</f>
         <v>284</v>
       </c>
-      <c r="Y23" s="7">
-        <f t="shared" ref="Y23:Y32" si="2">AVERAGE(D23:X23)</f>
+      <c r="AH23" s="7">
+        <f>AVERAGE(D23:X23)</f>
         <v>166.5</v>
       </c>
-      <c r="Z23" s="7">
-        <f t="shared" ref="Z23:Z32" si="3">MEDIAN(D23:X23)</f>
+      <c r="AI23" s="7">
+        <f>MEDIAN(D23:X23)</f>
         <v>166.5</v>
       </c>
-      <c r="AA23" s="7">
-        <f t="shared" ref="AA23:AA32" si="4">Z23/60</f>
+      <c r="AJ23" s="7">
+        <f>AI23/60</f>
         <v>2.7749999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="36.75">
+    <row r="24" spans="1:36" ht="36.75">
       <c r="A24" s="37"/>
       <c r="B24" s="9" t="s">
         <v>10</v>
@@ -3241,26 +3407,26 @@
         <v>104</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F24" s="9">
         <f>3*60+40+40+60+40</f>
         <v>360</v>
       </c>
-      <c r="Y24" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH24" s="7">
+        <f>AVERAGE(D24:X24)</f>
         <v>232</v>
       </c>
-      <c r="Z24" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI24" s="7">
+        <f>MEDIAN(D24:X24)</f>
         <v>232</v>
       </c>
-      <c r="AA24" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ24" s="7">
+        <f>AI24/60</f>
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="36.75">
+    <row r="25" spans="1:36" ht="36.75">
       <c r="A25" s="37"/>
       <c r="B25" s="9" t="s">
         <v>11</v>
@@ -3272,26 +3438,26 @@
         <v>210</v>
       </c>
       <c r="E25" s="9" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F25" s="9">
         <f>2*60+40</f>
         <v>160</v>
       </c>
-      <c r="Y25" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH25" s="7">
+        <f>AVERAGE(D25:X25)</f>
         <v>185</v>
       </c>
-      <c r="Z25" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI25" s="7">
+        <f>MEDIAN(D25:X25)</f>
         <v>185</v>
       </c>
-      <c r="AA25" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ25" s="7">
+        <f>AI25/60</f>
         <v>3.0833333333333335</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="24.75">
+    <row r="26" spans="1:36" ht="24.75">
       <c r="A26" s="37"/>
       <c r="B26" s="9" t="s">
         <v>12</v>
@@ -3303,26 +3469,26 @@
         <v>35</v>
       </c>
       <c r="E26" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F26" s="9">
         <f>60+17</f>
         <v>77</v>
       </c>
-      <c r="Y26" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH26" s="7">
+        <f>AVERAGE(D26:X26)</f>
         <v>56</v>
       </c>
-      <c r="Z26" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI26" s="7">
+        <f>MEDIAN(D26:X26)</f>
         <v>56</v>
       </c>
-      <c r="AA26" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ26" s="7">
+        <f>AI26/60</f>
         <v>0.93333333333333335</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="60.75">
+    <row r="27" spans="1:36" ht="60.75">
       <c r="A27" s="37"/>
       <c r="B27" s="9" t="s">
         <v>13</v>
@@ -3334,26 +3500,26 @@
         <v>525</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F27" s="9">
         <f>60*60+5</f>
         <v>3605</v>
       </c>
-      <c r="Y27" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH27" s="7">
+        <f>AVERAGE(D27:X27)</f>
         <v>2065</v>
       </c>
-      <c r="Z27" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI27" s="7">
+        <f>MEDIAN(D27:X27)</f>
         <v>2065</v>
       </c>
-      <c r="AA27" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ27" s="7">
+        <f>AI27/60</f>
         <v>34.416666666666664</v>
       </c>
     </row>
-    <row r="28" spans="1:27">
+    <row r="28" spans="1:36">
       <c r="A28" s="37"/>
       <c r="B28" s="9" t="s">
         <v>14</v>
@@ -3361,25 +3527,25 @@
       <c r="C28" s="9"/>
       <c r="D28" s="10"/>
       <c r="E28" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F28" s="9">
         <v>60</v>
       </c>
-      <c r="Y28" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH28" s="7">
+        <f>AVERAGE(D28:X28)</f>
         <v>60</v>
       </c>
-      <c r="Z28" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI28" s="7">
+        <f>MEDIAN(D28:X28)</f>
         <v>60</v>
       </c>
-      <c r="AA28" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ28" s="7">
+        <f>AI28/60</f>
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="24.75">
+    <row r="29" spans="1:36" ht="36.75">
       <c r="A29" s="37"/>
       <c r="B29" s="9" t="s">
         <v>15</v>
@@ -3390,26 +3556,26 @@
         <v>1645</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F29" s="9">
         <f>60*10</f>
         <v>600</v>
       </c>
-      <c r="Y29" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH29" s="7">
+        <f>AVERAGE(D29:X29)</f>
         <v>1122.5</v>
       </c>
-      <c r="Z29" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI29" s="7">
+        <f>MEDIAN(D29:X29)</f>
         <v>1122.5</v>
       </c>
-      <c r="AA29" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ29" s="7">
+        <f>AI29/60</f>
         <v>18.708333333333332</v>
       </c>
     </row>
-    <row r="30" spans="1:27">
+    <row r="30" spans="1:36">
       <c r="A30" s="37"/>
       <c r="B30" s="9" t="s">
         <v>16</v>
@@ -3421,26 +3587,26 @@
         <v>239</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F30" s="9">
         <f>2*60</f>
         <v>120</v>
       </c>
-      <c r="Y30" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH30" s="7">
+        <f>AVERAGE(D30:X30)</f>
         <v>179.5</v>
       </c>
-      <c r="Z30" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI30" s="7">
+        <f>MEDIAN(D30:X30)</f>
         <v>179.5</v>
       </c>
-      <c r="AA30" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ30" s="7">
+        <f>AI30/60</f>
         <v>2.9916666666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="24.75">
+    <row r="31" spans="1:36" ht="24.75">
       <c r="A31" s="37"/>
       <c r="B31" s="9" t="s">
         <v>17</v>
@@ -3450,26 +3616,26 @@
         <v>186</v>
       </c>
       <c r="E31" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="F31" s="9">
         <f>4*60+20</f>
         <v>260</v>
       </c>
-      <c r="Y31" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH31" s="7">
+        <f>AVERAGE(D31:X31)</f>
         <v>223</v>
       </c>
-      <c r="Z31" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI31" s="7">
+        <f>MEDIAN(D31:X31)</f>
         <v>223</v>
       </c>
-      <c r="AA31" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ31" s="7">
+        <f>AI31/60</f>
         <v>3.7166666666666668</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="45">
+    <row r="32" spans="1:36" ht="45">
       <c r="B32" s="33" t="s">
         <v>119</v>
       </c>
@@ -3480,22 +3646,22 @@
         <v>1003</v>
       </c>
       <c r="E32" s="33" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F32" s="7">
         <f>5*60</f>
         <v>300</v>
       </c>
-      <c r="Y32" s="7">
-        <f t="shared" si="2"/>
+      <c r="AH32" s="7">
+        <f>AVERAGE(D32:X32)</f>
         <v>651.5</v>
       </c>
-      <c r="Z32" s="7">
-        <f t="shared" si="3"/>
+      <c r="AI32" s="7">
+        <f>MEDIAN(D32:X32)</f>
         <v>651.5</v>
       </c>
-      <c r="AA32" s="7">
-        <f t="shared" si="4"/>
+      <c r="AJ32" s="7">
+        <f>AI32/60</f>
         <v>10.858333333333333</v>
       </c>
     </row>
@@ -3516,7 +3682,10 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="A21:A31"/>
     <mergeCell ref="A1:XFD1"/>
     <mergeCell ref="A2:XFD2"/>
